--- a/qualtcom/Organizacional/Medicion y Monitoreo/Concentrado_Métricas-aammdd.xlsx
+++ b/qualtcom/Organizacional/Medicion y Monitoreo/Concentrado_Métricas-aammdd.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zepeda\escuela1\qualtcom\Organizacional\Medicion y Monitoreo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="0" windowWidth="16608" windowHeight="9432" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="1470" yWindow="0" windowWidth="16605" windowHeight="9435" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="Desviacion de esfuerzo" sheetId="6" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <sheet name="Funcional" sheetId="11" r:id="rId6"/>
     <sheet name="Indice de Satisfacción" sheetId="13" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -134,7 +139,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -402,7 +407,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -435,10 +440,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="96" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,7 +862,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -884,6 +889,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -900,8 +906,8 @@
             <c:strRef>
               <c:f>'Desviacion de esfuerzo'!$D$18:$D$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>Planeado</c:v>
                 </c:pt>
               </c:strCache>
@@ -972,8 +978,8 @@
             <c:strRef>
               <c:f>'Desviacion de esfuerzo'!$E$18:$E$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>Real </c:v>
                 </c:pt>
               </c:strCache>
@@ -1046,11 +1052,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49713152"/>
-        <c:axId val="142662656"/>
+        <c:axId val="4295120"/>
+        <c:axId val="4295680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49713152"/>
+        <c:axId val="4295120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1066,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142662656"/>
+        <c:crossAx val="4295680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1068,7 +1074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142662656"/>
+        <c:axId val="4295680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,13 +1085,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49713152"/>
+        <c:crossAx val="4295120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1103,7 +1110,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1193,11 +1200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="280637824"/>
-        <c:axId val="280639360"/>
+        <c:axId val="175730288"/>
+        <c:axId val="175730848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280637824"/>
+        <c:axId val="175730288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1214,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280639360"/>
+        <c:crossAx val="175730848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1215,7 +1222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280639360"/>
+        <c:axId val="175730848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1227,7 +1234,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280637824"/>
+        <c:crossAx val="175730288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1253,7 +1260,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1344,20 +1351,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="280649088"/>
-        <c:axId val="143004800"/>
+        <c:axId val="106024672"/>
+        <c:axId val="106025232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280649088"/>
+        <c:axId val="106024672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143004800"/>
+        <c:crossAx val="106025232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1365,7 +1373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143004800"/>
+        <c:axId val="106025232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1377,7 +1385,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280649088"/>
+        <c:crossAx val="106024672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1403,7 +1411,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1430,6 +1438,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1446,8 +1455,8 @@
             <c:strRef>
               <c:f>'Desviacion de esfuerzo'!$F$18:$F$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>Desviación</c:v>
                 </c:pt>
               </c:strCache>
@@ -1520,11 +1529,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143878016"/>
-        <c:axId val="144458112"/>
+        <c:axId val="150005088"/>
+        <c:axId val="150005648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143878016"/>
+        <c:axId val="150005088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144458112"/>
+        <c:crossAx val="150005648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1542,7 +1551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144458112"/>
+        <c:axId val="150005648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1555,7 +1564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143878016"/>
+        <c:crossAx val="150005088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1575,7 +1584,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1618,8 +1627,8 @@
             <c:strRef>
               <c:f>'Desviacion de costos'!$C$18:$C$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>Planeado</c:v>
                 </c:pt>
               </c:strCache>
@@ -1644,7 +1653,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$C$20:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2247.5249999999996</c:v>
@@ -1668,8 +1677,8 @@
             <c:strRef>
               <c:f>'Desviacion de costos'!$D$18:$D$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>Real </c:v>
                 </c:pt>
               </c:strCache>
@@ -1694,7 +1703,7 @@
             <c:numRef>
               <c:f>'Desviacion de costos'!$D$20:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-"$"* #,##0.00_-;\-"$"* #,##0.00_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
@@ -1720,11 +1729,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="277837696"/>
-        <c:axId val="277839232"/>
+        <c:axId val="150008448"/>
+        <c:axId val="150009008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="277837696"/>
+        <c:axId val="150008448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,7 +1743,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="277839232"/>
+        <c:crossAx val="150009008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1742,18 +1751,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277839232"/>
+        <c:axId val="150009008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="277837696"/>
+        <c:crossAx val="150008448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1777,7 +1786,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1820,8 +1829,8 @@
             <c:strRef>
               <c:f>'Desviacion de costos'!$E$18:$E$19</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
                   <c:v>Desviación</c:v>
                 </c:pt>
               </c:strCache>
@@ -1872,11 +1881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="230072704"/>
-        <c:axId val="230074240"/>
+        <c:axId val="104007552"/>
+        <c:axId val="104008112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="230072704"/>
+        <c:axId val="104007552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230074240"/>
+        <c:crossAx val="104008112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1894,7 +1903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230074240"/>
+        <c:axId val="104008112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1907,7 +1916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230072704"/>
+        <c:crossAx val="104007552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1927,7 +1936,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1954,7 +1963,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2018,11 +2026,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="242305664"/>
-        <c:axId val="242315648"/>
+        <c:axId val="104010352"/>
+        <c:axId val="104010912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242305664"/>
+        <c:axId val="104010352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2040,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242315648"/>
+        <c:crossAx val="104010912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2040,7 +2048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242315648"/>
+        <c:axId val="104010912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2059,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242305664"/>
+        <c:crossAx val="104010352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2077,7 +2085,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2104,7 +2112,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2168,11 +2175,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="242325376"/>
-        <c:axId val="242326912"/>
+        <c:axId val="104013712"/>
+        <c:axId val="104014272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242325376"/>
+        <c:axId val="104013712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2189,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242326912"/>
+        <c:crossAx val="104014272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2190,7 +2197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242326912"/>
+        <c:axId val="104014272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2202,7 +2209,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242325376"/>
+        <c:crossAx val="104013712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2228,7 +2235,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2255,7 +2262,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2319,11 +2325,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254470016"/>
-        <c:axId val="254471552"/>
+        <c:axId val="105971568"/>
+        <c:axId val="105972128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254470016"/>
+        <c:axId val="105971568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,7 +2339,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254471552"/>
+        <c:crossAx val="105972128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2341,7 +2347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254471552"/>
+        <c:axId val="105972128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2353,7 +2359,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254470016"/>
+        <c:crossAx val="105971568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2379,7 +2385,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2406,7 +2412,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2470,11 +2475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53159040"/>
-        <c:axId val="53160576"/>
+        <c:axId val="105974928"/>
+        <c:axId val="105975488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53159040"/>
+        <c:axId val="105974928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2489,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53160576"/>
+        <c:crossAx val="105975488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2492,7 +2497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53160576"/>
+        <c:axId val="105975488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2504,7 +2509,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53159040"/>
+        <c:crossAx val="105974928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2530,7 +2535,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2620,11 +2625,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="267645696"/>
-        <c:axId val="267647232"/>
+        <c:axId val="175726928"/>
+        <c:axId val="175727488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267645696"/>
+        <c:axId val="175726928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,7 +2639,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267647232"/>
+        <c:crossAx val="175727488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2642,7 +2647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267647232"/>
+        <c:axId val="175727488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2654,7 +2659,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267645696"/>
+        <c:crossAx val="175726928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2697,7 +2702,7 @@
         <xdr:cNvPr id="3" name="2 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2738,7 @@
         <xdr:cNvPr id="5" name="4 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2781,7 @@
         <xdr:cNvPr id="2" name="1 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +2819,7 @@
         <xdr:cNvPr id="3" name="2 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2857,7 +2862,7 @@
         <xdr:cNvPr id="5" name="4 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2898,7 @@
         <xdr:cNvPr id="7" name="6 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2939,7 @@
         <xdr:cNvPr id="2" name="1 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2970,7 +2975,7 @@
         <xdr:cNvPr id="5" name="4 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3016,7 @@
         <xdr:cNvPr id="2" name="1 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +3059,7 @@
         <xdr:cNvPr id="2" name="1 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3190,7 +3195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3401,43 +3406,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B20" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.6640625" style="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.7109375" style="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:22" s="10" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:22" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:22" s="10" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:22" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>0</v>
       </c>
@@ -3451,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>4</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="21" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="C21" s="17" t="s">
         <v>6</v>
@@ -3485,7 +3490,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="22" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>7</v>
       </c>
@@ -3503,7 +3508,7 @@
         <v>0.45175438596491241</v>
       </c>
     </row>
-    <row r="23" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="33"/>
       <c r="C23" s="17" t="s">
         <v>6</v>
@@ -3519,12 +3524,12 @@
         <v>0.12280701754385981</v>
       </c>
     </row>
-    <row r="24" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:22" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="E30" s="1"/>
       <c r="G30" s="1"/>
@@ -3537,7 +3542,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
@@ -3550,7 +3555,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="E32" s="1"/>
       <c r="G32" s="1"/>
@@ -3563,8 +3568,8 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="3:22" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:22" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="E34" s="1"/>
       <c r="G34" s="1"/>
@@ -3577,7 +3582,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
       <c r="G35" s="1"/>
@@ -3590,7 +3595,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="E36" s="1"/>
       <c r="G36" s="1"/>
@@ -3603,7 +3608,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="E37" s="1"/>
       <c r="G37" s="1"/>
@@ -3616,7 +3621,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="E38" s="1"/>
       <c r="G38" s="1"/>
@@ -3629,7 +3634,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="E39" s="1"/>
       <c r="G39" s="1"/>
@@ -3642,7 +3647,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="E40" s="1"/>
       <c r="G40" s="1"/>
@@ -3655,7 +3660,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="E41" s="1"/>
       <c r="G41" s="1"/>
@@ -3668,7 +3673,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="E45" s="1"/>
       <c r="G45" s="1"/>
@@ -3681,7 +3686,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
@@ -3694,7 +3699,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="E47" s="1"/>
       <c r="G47" s="1"/>
@@ -3707,7 +3712,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
@@ -3720,280 +3725,280 @@
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="E49" s="1"/>
       <c r="G49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="E50" s="1"/>
       <c r="G50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="E51" s="1"/>
       <c r="G51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="E52" s="1"/>
       <c r="G52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="E53" s="1"/>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="E54" s="1"/>
       <c r="G54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="E55" s="1"/>
       <c r="G55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="E56" s="1"/>
       <c r="G56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="E57" s="1"/>
       <c r="G57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="E58" s="1"/>
       <c r="G58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="E59" s="1"/>
       <c r="G59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="E60" s="1"/>
       <c r="G60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="E61" s="1"/>
       <c r="G61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="E62" s="1"/>
       <c r="G62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="E63" s="1"/>
       <c r="G63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="E64" s="1"/>
       <c r="G64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="E65" s="1"/>
       <c r="G65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="E66" s="1"/>
       <c r="G66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="E67" s="1"/>
       <c r="G67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="E68" s="1"/>
       <c r="G68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="E69" s="1"/>
       <c r="G69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="E70" s="1"/>
       <c r="G70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="E71" s="1"/>
       <c r="G71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="E72" s="1"/>
       <c r="G72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="E73" s="1"/>
       <c r="G73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="E74" s="1"/>
       <c r="G74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="E75" s="1"/>
       <c r="G75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="E76" s="1"/>
       <c r="G76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="E77" s="1"/>
       <c r="G77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="E78" s="1"/>
       <c r="G78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="E79" s="1"/>
       <c r="G79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="E80" s="1"/>
       <c r="G80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="E81" s="1"/>
       <c r="G81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="E82" s="1"/>
       <c r="G82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="E83" s="1"/>
       <c r="G83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="E84" s="1"/>
       <c r="G84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="E85" s="1"/>
       <c r="G85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="E86" s="1"/>
       <c r="G86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="E87" s="1"/>
       <c r="G87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="E88" s="1"/>
       <c r="G88" s="1"/>
@@ -4029,38 +4034,38 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="11.5703125" style="1"/>
     <col min="16" max="16" width="13" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="1"/>
+    <col min="17" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:5" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:5" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:5" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:5" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>0</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>4</v>
       </c>
@@ -4089,7 +4094,7 @@
         <v>0.11013225659336366</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>7</v>
       </c>
@@ -4104,16 +4109,16 @@
         <v>1.6461967813717979E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A27:XFD1048576">
     <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="notEqual">
@@ -4135,23 +4140,23 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="21.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="21.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
@@ -4165,7 +4170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="22"/>
       <c r="C3" s="23" t="s">
         <v>9</v>
@@ -4181,7 +4186,7 @@
       </c>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="21">
         <v>1</v>
       </c>
@@ -4202,7 +4207,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="21">
         <v>2</v>
       </c>
@@ -4223,7 +4228,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="21">
         <v>3</v>
       </c>
@@ -4244,11 +4249,11 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
         <v>14</v>
       </c>
@@ -4266,7 +4271,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="21" t="s">
@@ -4281,7 +4286,7 @@
       <c r="G9" s="30"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="21">
         <v>1</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="21">
         <v>2</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="21">
         <v>3</v>
       </c>
@@ -4332,7 +4337,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A3:C3 M2:XFD6 A9:A12 A15:XFD1048576 A8:B8 A4:G6 A2:G2 A7:H7 H8 A13:H14 J7:XFD14 G9:H12">
     <cfRule type="cellIs" dxfId="34" priority="14" stopIfTrue="1" operator="notEqual">
@@ -4403,21 +4408,21 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2"/>
-    <col min="9" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
@@ -4433,7 +4438,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
         <v>9</v>
@@ -4451,7 +4456,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="23">
         <v>1</v>
       </c>
@@ -4474,7 +4479,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="23">
         <v>2</v>
       </c>
@@ -4497,7 +4502,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
         <v>3</v>
       </c>
@@ -4520,12 +4525,12 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="32" t="s">
         <v>14</v>
       </c>
@@ -4544,7 +4549,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23" t="s">
@@ -4560,7 +4565,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="23">
         <v>1</v>
       </c>
@@ -4583,7 +4588,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="23">
         <v>2</v>
       </c>
@@ -4606,7 +4611,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="23">
         <v>3</v>
       </c>
@@ -4627,36 +4632,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
     </row>
-    <row r="31" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
     </row>
   </sheetData>
@@ -4751,21 +4756,21 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2"/>
-    <col min="9" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="32" t="s">
         <v>0</v>
       </c>
@@ -4781,7 +4786,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
         <v>24</v>
@@ -4799,7 +4804,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="23">
         <v>1</v>
       </c>
@@ -4822,7 +4827,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="23">
         <v>2</v>
       </c>
@@ -4845,7 +4850,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
         <v>3</v>
       </c>
@@ -4868,41 +4873,41 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
     </row>
-    <row r="26" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
     </row>
   </sheetData>
@@ -4939,21 +4944,21 @@
       <selection activeCell="B2" sqref="B2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2"/>
-    <col min="9" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2"/>
+    <col min="9" max="9" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="32" t="s">
         <v>0</v>
       </c>
@@ -4969,7 +4974,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
       <c r="C3" s="23" t="s">
         <v>28</v>
@@ -4987,7 +4992,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="23">
         <v>1</v>
       </c>
@@ -5010,7 +5015,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="23">
         <v>2</v>
       </c>
@@ -5033,7 +5038,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
         <v>3</v>
       </c>
@@ -5056,41 +5061,41 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
     </row>
-    <row r="26" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
     </row>
   </sheetData>
@@ -5123,18 +5128,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="2"/>
+    <col min="3" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
@@ -5145,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
@@ -5158,7 +5163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="23">
         <v>1</v>
       </c>
@@ -5175,7 +5180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="23">
         <v>2</v>
       </c>
@@ -5192,7 +5197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="23">
         <v>3</v>
       </c>
